--- a/input/scenarier.xlsx
+++ b/input/scenarier.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-kringsjaa\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB702F-1903-4348-BFB4-6ABF03642753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A174D9-E26C-406C-A806-825BB8932E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="3" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="18240" windowHeight="29040" tabRatio="796" activeTab="1" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
   </bookViews>
   <sheets>
     <sheet name="Referansesituasjon" sheetId="17" r:id="rId1"/>
-    <sheet name="Energiforsyning (2030)" sheetId="22" r:id="rId2"/>
-    <sheet name="Energiforsyning (2035)" sheetId="24" r:id="rId3"/>
-    <sheet name="Energiforsyning (2040)" sheetId="23" r:id="rId4"/>
+    <sheet name="varmegjenvinning" sheetId="27" r:id="rId2"/>
+    <sheet name="panelovnTilGrunnvarme" sheetId="22" r:id="rId3"/>
+    <sheet name="solcellerHalvGrunnvarmeHalv" sheetId="26" r:id="rId4"/>
+    <sheet name="solcellerHalv" sheetId="25" r:id="rId5"/>
+    <sheet name="solcellerAlle" sheetId="24" r:id="rId6"/>
+    <sheet name="alleSolcellerAlleGrunnvarme" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="27">
   <si>
     <t>Andre</t>
   </si>
@@ -110,10 +113,16 @@
     <t>S50</t>
   </si>
   <si>
-    <t>G100_S50</t>
+    <t>G100_S100</t>
   </si>
   <si>
-    <t>G100_S100</t>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S50_G50</t>
+  </si>
+  <si>
+    <t>T50</t>
   </si>
 </sst>
 </file>
@@ -504,17 +513,17 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -553,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -594,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -635,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -676,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -717,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -758,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -840,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -881,22 +890,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,21 +914,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26210C-B910-48DD-BCF3-2705F54D050C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9EDC3-EA69-4355-826B-3D4F61645B75}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -958,350 +967,350 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1309,11 +1318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECE8FE-6188-425B-83DD-A878AB6004E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26210C-B910-48DD-BCF3-2705F54D050C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1367,40 +1376,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,40 +1417,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,40 +1458,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,40 +1499,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,40 +1540,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,40 +1581,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,21 +1722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64510B66-09F4-44EC-A757-99781A0CF7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27EDEF-BAFF-4D8E-8E48-DD13878818D9}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1766,350 +1775,1562 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B358243-BA3C-4422-964A-0C01DD7136E0}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECE8FE-6188-425B-83DD-A878AB6004E9}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64510B66-09F4-44EC-A757-99781A0CF7A2}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/input/scenarier.xlsx
+++ b/input/scenarier.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-kringsjaa\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A174D9-E26C-406C-A806-825BB8932E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D688C5-81B7-4EBA-B877-E8B14B663FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="18240" windowHeight="29040" tabRatio="796" activeTab="1" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
   </bookViews>
   <sheets>
     <sheet name="Referansesituasjon" sheetId="17" r:id="rId1"/>
-    <sheet name="varmegjenvinning" sheetId="27" r:id="rId2"/>
-    <sheet name="panelovnTilGrunnvarme" sheetId="22" r:id="rId3"/>
-    <sheet name="solcellerHalvGrunnvarmeHalv" sheetId="26" r:id="rId4"/>
-    <sheet name="solcellerHalv" sheetId="25" r:id="rId5"/>
-    <sheet name="solcellerAlle" sheetId="24" r:id="rId6"/>
-    <sheet name="alleSolcellerAlleGrunnvarme" sheetId="23" r:id="rId7"/>
+    <sheet name="panelovnTilGrunnvarme" sheetId="22" r:id="rId2"/>
+    <sheet name="solcellerHalvGrunnvarmeHalv" sheetId="26" r:id="rId3"/>
+    <sheet name="solcellerHalv" sheetId="25" r:id="rId4"/>
+    <sheet name="solcellerAlle" sheetId="24" r:id="rId5"/>
+    <sheet name="alleSolcellerAlleGrunnvarme" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="28">
   <si>
     <t>Andre</t>
   </si>
@@ -122,7 +121,10 @@
     <t>S50_G50</t>
   </si>
   <si>
-    <t>T50</t>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>radiatorMedSolceller</t>
   </si>
 </sst>
 </file>
@@ -512,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30705ACC-D9AA-405D-9F00-F98A71A7ECF7}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -890,7 +892,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -914,14 +956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9EDC3-EA69-4355-826B-3D4F61645B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26210C-B910-48DD-BCF3-2705F54D050C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
@@ -972,40 +1014,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,40 +1055,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,40 +1096,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,40 +1137,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,40 +1178,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,40 +1219,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,40 +1260,40 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,43 +1301,83 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1318,11 +1400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26210C-B910-48DD-BCF3-2705F54D050C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27EDEF-BAFF-4D8E-8E48-DD13878818D9}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A10" sqref="A10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1376,40 +1458,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,40 +1499,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,40 +1540,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,40 +1581,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,40 +1622,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,40 +1663,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,40 +1704,40 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,43 +1745,83 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1722,11 +1844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27EDEF-BAFF-4D8E-8E48-DD13878818D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B358243-BA3C-4422-964A-0C01DD7136E0}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M10" sqref="A10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1780,40 +1902,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,40 +1943,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,40 +1984,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,40 +2025,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1944,40 +2066,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,40 +2107,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2026,40 +2148,40 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,43 +2189,83 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2126,11 +2288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B358243-BA3C-4422-964A-0C01DD7136E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECE8FE-6188-425B-83DD-A878AB6004E9}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2184,40 +2346,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,40 +2387,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,40 +2428,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,40 +2469,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,40 +2510,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,40 +2551,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,40 +2592,40 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,43 +2633,83 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2530,11 +2732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECE8FE-6188-425B-83DD-A878AB6004E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64510B66-09F4-44EC-A757-99781A0CF7A2}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2588,40 +2790,40 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,40 +2831,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2670,40 +2872,40 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,40 +2913,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2752,40 +2954,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,40 +2995,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,40 +3036,40 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2875,447 +3077,83 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64510B66-09F4-44EC-A757-99781A0CF7A2}">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/input/scenarier.xlsx
+++ b/input/scenarier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-kringsjaa\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D688C5-81B7-4EBA-B877-E8B14B663FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7450B0-CAF6-493F-91A8-E43F29810724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{3DEA320C-EBD6-4B55-BA03-0B157F48021F}"/>
   </bookViews>
   <sheets>
     <sheet name="Referansesituasjon" sheetId="17" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30705ACC-D9AA-405D-9F00-F98A71A7ECF7}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26210C-B910-48DD-BCF3-2705F54D050C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1137,40 +1137,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,40 +1178,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
